--- a/data/trans_camb/P23_6_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_6_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-2,72</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 10,22</t>
+          <t>-10,7; 15,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 7,38</t>
+          <t>-9,66; 14,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 10,42</t>
+          <t>-11,39; 14,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 10,72</t>
+          <t>-6,24; 9,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 7,59</t>
+          <t>-5,75; 10,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 6,29</t>
+          <t>-13,69; 0,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-6,18; 10,31</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 10,19</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; 6,28</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,66%</t>
+          <t>53,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>59,17%</t>
+          <t>32,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53,0%</t>
+          <t>73,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,14%</t>
+          <t>76,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>63,65%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33,63%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-12,24%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,19; 717,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-91,13; 755,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,95; 419,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,41; 396,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>14,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>16,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,38</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10,48</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 27,89</t>
+          <t>0,0; 44,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 2,87</t>
+          <t>2,03; 50,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 5,05</t>
+          <t>-6,14; 3,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 13,35</t>
+          <t>-4,84; 7,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,72</t>
+          <t>-3,9; 8,35</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 28,0</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 3,36</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 36,08</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>477,76%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-37,99%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>181,42%</t>
+          <t>72,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-24,0%</t>
+          <t>94,47%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>789,47%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>57,1%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1121,1%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-3,62</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,36</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -0,02</t>
+          <t>-9,77; 7,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 5,67</t>
+          <t>-5,57; 14,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 2,39</t>
+          <t>-4,62; 15,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 6,19</t>
+          <t>-9,95; 2,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -0,06</t>
+          <t>-7,99; 4,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 3,56</t>
+          <t>-10,11; 2,22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; 2,27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 6,34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; 5,46</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-68,08%</t>
+          <t>-20,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-23,02%</t>
+          <t>50,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-39,68%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>-50,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-56,63%</t>
+          <t>-25,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-8,3%</t>
+          <t>-60,24%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-37,74%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-0,97%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-93,29; 42,05</t>
+          <t>-100,0; 364,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,91; 137,02</t>
+          <t>-70,49; 642,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,34; 139,18</t>
+          <t>-62,77; 653,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-61,71; 248,93</t>
+          <t>-100,0; 152,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,76; 2,86</t>
+          <t>-82,41; 185,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,02; 87,63</t>
+          <t>-100,0; 212,85</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-79,37; 72,45</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-60,46; 175,8</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-65,0; 155,68</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 2,64</t>
+          <t>-5,75; 4,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 4,04</t>
+          <t>-7,13; 1,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 11,31</t>
+          <t>-4,58; 7,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 6,66</t>
+          <t>-3,15; 13,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 6,12</t>
+          <t>-8,87; 5,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 3,73</t>
+          <t>-4,91; 10,88</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 8,1</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 1,89</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 6,82</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-33,55%</t>
+          <t>-23,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,31%</t>
+          <t>-66,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>82,57%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>56,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>-19,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>28,1%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>35,61%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-32,72%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29,41%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 277,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-56,33; 159,98</t>
+          <t>-29,0; 281,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 192,75</t>
+          <t>-73,63; 130,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,79; 126,72</t>
+          <t>-45,09; 219,85</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-34,46; 209,93</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-77,36; 60,16</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-38,94; 164,5</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>18,41</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,33</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7,8</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 15,62</t>
+          <t>-6,41; 35,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 2,76</t>
+          <t>-9,63; 4,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 7,99</t>
+          <t>-9,11; 6,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 9,89</t>
+          <t>-5,0; 12,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 9,19</t>
+          <t>-3,98; 15,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 5,0</t>
+          <t>5,82; 32,16</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 16,95</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 6,31</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 17,23</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>63,77%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-37,36%</t>
+          <t>-32,39%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>-22,75%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>73,13%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>111,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>482,85%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>67,57%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>15,09%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>158,03%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-81,9; 520,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-86,01; 137,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,98; 198,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,84; 213,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-52,44; 199,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,33; 109,3</t>
+          <t>-9,68; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-69,64; 862,01</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-71,68; 262,15</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-13,42; 637,35</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>-9,78</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>8,56</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-5,25</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>7,1</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 11,16</t>
+          <t>-4,99; 8,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 6,9</t>
+          <t>-4,87; 12,32</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 2,32</t>
+          <t>-2,44; 20,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 2,57</t>
+          <t>-24,39; -1,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 3,24</t>
+          <t>-17,95; 8,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 1,78</t>
+          <t>-6,89; 25,27</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-12,93; -0,03</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 5,36</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 18,17</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>40,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-49,83%</t>
+          <t>212,44%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-48,21%</t>
+          <t>-83,58%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-30,19%</t>
+          <t>-40,24%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-36,06%</t>
+          <t>73,11%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-70,33%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-27,07%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>95,12%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-77,17; 592,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-91,98; 420,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-86,98; 51,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-86,35; 38,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-73,74; 64,12</t>
+          <t>-100,0; 272,19</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-74,0; 39,7</t>
+          <t>-46,7; 596,16</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-85,12; 193,94</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-38,55; 530,07</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,44</t>
+          <t>-0,9; 10,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,39</t>
+          <t>-3,01; 3,45</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,66</t>
+          <t>0,8; 14,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,86</t>
+          <t>-3,36; 2,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,68</t>
+          <t>-3,63; 3,16</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,42</t>
+          <t>-0,29; 7,31</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 5,07</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 2,08</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 9,03</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-24,69%</t>
+          <t>-2,07%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>138,05%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>-5,1%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>-5,89%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-7,91%</t>
+          <t>57,23%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-5,35%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>85,9%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-48,05; 128,97</t>
+          <t>-28,82; 424,78</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-62,03; 41,71</t>
+          <t>-61,51; 142,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 53,27</t>
+          <t>0,18; 529,22</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 59,12</t>
+          <t>-45,81; 68,57</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 56,93</t>
+          <t>-48,58; 83,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 32,86</t>
+          <t>-4,48; 165,77</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-27,98; 126,82</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-42,24; 54,81</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>16,99; 213,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
